--- a/LF/PreTAS/Senegal/july 2021/sn_lf_pretas_3_fts_result_202107.xlsx
+++ b/LF/PreTAS/Senegal/july 2021/sn_lf_pretas_3_fts_result_202107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\july 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDA7D6-2D57-434B-AEA0-838EA8079922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3643E41-C156-4372-968F-28B9647D4191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13" yWindow="13" windowWidth="25587" windowHeight="13787" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="232">
   <si>
     <t>form_title</t>
   </si>
@@ -342,12 +342,6 @@
   </si>
   <si>
     <t>Ligne.temoin.discontinue/partielle</t>
-  </si>
-  <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
-  </si>
-  <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
   </si>
   <si>
     <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
@@ -737,6 +731,12 @@
   </si>
   <si>
     <t>(Juillet 2021) 3. Pre-TAS FL Résultat FTS</t>
+  </si>
+  <si>
+    <t>Difficulte.de.migration.d.echantillon</t>
+  </si>
+  <si>
+    <t>Difficulte.d.absorption.d.echantillon</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>23</v>
@@ -1386,10 +1386,10 @@
         <v>96</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="15"/>
@@ -1402,17 +1402,17 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
@@ -1430,17 +1430,17 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
@@ -1455,22 +1455,22 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="15"/>
@@ -1485,7 +1485,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="20"/>
       <c r="P5" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
@@ -1493,29 +1493,29 @@
         <v>24</v>
       </c>
       <c r="B6" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="E6" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="F6" s="41" t="s">
         <v>213</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>215</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>222</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>224</v>
       </c>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
@@ -1531,29 +1531,29 @@
         <v>24</v>
       </c>
       <c r="B7" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="F7" s="41" t="s">
         <v>213</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>215</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="41" t="s">
         <v>219</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>221</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
@@ -1569,14 +1569,14 @@
         <v>27</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
@@ -1585,7 +1585,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M8" s="20" t="s">
         <v>94</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="20"/>
@@ -1642,7 +1642,7 @@
         <v>64</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1677,7 +1677,7 @@
       <c r="I11" s="27"/>
       <c r="J11" s="23"/>
       <c r="K11" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="20" t="s">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="10"/>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="10"/>
@@ -1818,7 +1818,7 @@
         <v>67</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="28"/>
@@ -1855,7 +1855,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="31"/>
       <c r="K17" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="20" t="s">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="28"/>
@@ -1885,7 +1885,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
       <c r="K18" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="20" t="s">
@@ -1938,7 +1938,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="10"/>
       <c r="L20" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="33"/>
@@ -2007,11 +2007,11 @@
         <v>60</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="28"/>
@@ -2079,9 +2079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2109,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2215,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
@@ -2243,7 +2243,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
@@ -2257,7 +2257,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -2271,7 +2271,7 @@
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
@@ -2285,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
@@ -2313,13 +2313,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2327,13 +2327,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2341,13 +2341,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2355,13 +2355,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2369,13 +2369,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2383,13 +2383,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2397,13 +2397,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2411,13 +2411,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2425,13 +2425,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2439,13 +2439,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2453,13 +2453,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2467,13 +2467,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2481,13 +2481,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2495,13 +2495,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2509,13 +2509,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2523,13 +2523,13 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2537,13 +2537,13 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2551,13 +2551,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2565,13 +2565,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2579,13 +2579,13 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2593,13 +2593,13 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2607,13 +2607,13 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2621,817 +2621,817 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>134</v>
@@ -3443,12 +3443,12 @@
         <v>134</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>143</v>
@@ -3460,12 +3460,12 @@
         <v>143</v>
       </c>
       <c r="F90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B91">
         <v>110</v>
@@ -3477,12 +3477,12 @@
         <v>110</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>135</v>
@@ -3494,12 +3494,12 @@
         <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B93">
         <v>122</v>
@@ -3511,12 +3511,12 @@
         <v>122</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94">
         <v>128</v>
@@ -3528,12 +3528,12 @@
         <v>128</v>
       </c>
       <c r="F94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B95">
         <v>130</v>
@@ -3545,12 +3545,12 @@
         <v>130</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B96">
         <v>125</v>
@@ -3562,12 +3562,12 @@
         <v>125</v>
       </c>
       <c r="F96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B97">
         <v>109</v>
@@ -3579,12 +3579,12 @@
         <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B98">
         <v>141</v>
@@ -3596,12 +3596,12 @@
         <v>141</v>
       </c>
       <c r="F98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B99">
         <v>142</v>
@@ -3613,12 +3613,12 @@
         <v>142</v>
       </c>
       <c r="F99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100">
         <v>132</v>
@@ -3630,12 +3630,12 @@
         <v>132</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>144</v>
@@ -3647,12 +3647,12 @@
         <v>144</v>
       </c>
       <c r="F101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B102">
         <v>112</v>
@@ -3664,12 +3664,12 @@
         <v>112</v>
       </c>
       <c r="F102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B103">
         <v>140</v>
@@ -3681,12 +3681,12 @@
         <v>140</v>
       </c>
       <c r="F103" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>116</v>
@@ -3698,12 +3698,12 @@
         <v>116</v>
       </c>
       <c r="F104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>131</v>
@@ -3715,12 +3715,12 @@
         <v>131</v>
       </c>
       <c r="F105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B106">
         <v>126</v>
@@ -3732,12 +3732,12 @@
         <v>126</v>
       </c>
       <c r="F106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B107">
         <v>136</v>
@@ -3749,12 +3749,12 @@
         <v>136</v>
       </c>
       <c r="F107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>146</v>
@@ -3766,12 +3766,12 @@
         <v>146</v>
       </c>
       <c r="F108" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109">
         <v>137</v>
@@ -3783,12 +3783,12 @@
         <v>137</v>
       </c>
       <c r="F109" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>120</v>
@@ -3800,12 +3800,12 @@
         <v>120</v>
       </c>
       <c r="F110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B111">
         <v>148</v>
@@ -3817,12 +3817,12 @@
         <v>148</v>
       </c>
       <c r="F111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>147</v>
@@ -3834,12 +3834,12 @@
         <v>147</v>
       </c>
       <c r="F112" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B113">
         <v>127</v>
@@ -3851,12 +3851,12 @@
         <v>127</v>
       </c>
       <c r="F113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>129</v>
@@ -3868,12 +3868,12 @@
         <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>139</v>
@@ -3885,12 +3885,12 @@
         <v>139</v>
       </c>
       <c r="F115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B116">
         <v>138</v>
@@ -3902,12 +3902,12 @@
         <v>138</v>
       </c>
       <c r="F116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B117">
         <v>124</v>
@@ -3919,12 +3919,12 @@
         <v>124</v>
       </c>
       <c r="F117" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B118">
         <v>145</v>
@@ -3936,12 +3936,12 @@
         <v>145</v>
       </c>
       <c r="F118" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B119">
         <v>133</v>
@@ -3953,12 +3953,12 @@
         <v>133</v>
       </c>
       <c r="F119" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B120">
         <v>113</v>
@@ -3970,12 +3970,12 @@
         <v>113</v>
       </c>
       <c r="F120" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>115</v>
@@ -3987,12 +3987,12 @@
         <v>115</v>
       </c>
       <c r="F121" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>117</v>
@@ -4004,12 +4004,12 @@
         <v>117</v>
       </c>
       <c r="F122" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>105</v>
@@ -4021,12 +4021,12 @@
         <v>105</v>
       </c>
       <c r="F123" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124">
         <v>103</v>
@@ -4038,12 +4038,12 @@
         <v>103</v>
       </c>
       <c r="F124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>123</v>
@@ -4055,12 +4055,12 @@
         <v>123</v>
       </c>
       <c r="F125" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>108</v>
@@ -4072,12 +4072,12 @@
         <v>108</v>
       </c>
       <c r="F126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>119</v>
@@ -4089,12 +4089,12 @@
         <v>119</v>
       </c>
       <c r="F127" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>121</v>
@@ -4106,12 +4106,12 @@
         <v>121</v>
       </c>
       <c r="F128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>114</v>
@@ -4123,12 +4123,12 @@
         <v>114</v>
       </c>
       <c r="F129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>107</v>
@@ -4140,12 +4140,12 @@
         <v>107</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131">
         <v>106</v>
@@ -4157,12 +4157,12 @@
         <v>106</v>
       </c>
       <c r="F131" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B132">
         <v>111</v>
@@ -4174,12 +4174,12 @@
         <v>111</v>
       </c>
       <c r="F132" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>101</v>
@@ -4191,12 +4191,12 @@
         <v>101</v>
       </c>
       <c r="F133" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>102</v>
@@ -4208,10 +4208,13 @@
         <v>102</v>
       </c>
       <c r="F134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>127</v>
+      </c>
       <c r="B135">
         <v>118</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>118</v>
       </c>
       <c r="F135" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4265,16 +4268,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2">
         <v>20210722</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
